--- a/26.06/ghtState.xlsx
+++ b/26.06/ghtState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Alaska</t>
   </si>
@@ -612,6 +612,18 @@
   <si>
     <t>22 06 2020</t>
   </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE144"/>
+  <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22926,25 +22938,810 @@
       <c r="A140" t="s">
         <v>194</v>
       </c>
+      <c r="B140">
+        <v>3.54933378</v>
+      </c>
+      <c r="C140">
+        <v>22.75420331</v>
+      </c>
+      <c r="D140">
+        <v>29.21816616</v>
+      </c>
+      <c r="F140">
+        <v>32.06064262</v>
+      </c>
+      <c r="G140">
+        <v>7.57006494</v>
+      </c>
+      <c r="H140">
+        <v>6.29778047</v>
+      </c>
+      <c r="I140">
+        <v>11.55155918</v>
+      </c>
+      <c r="J140">
+        <v>14.89273478</v>
+      </c>
+      <c r="K140">
+        <v>23.06657092</v>
+      </c>
+      <c r="L140">
+        <v>14.26889578</v>
+      </c>
+      <c r="M140">
+        <v>13.84721165</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>29.27596068</v>
+      </c>
+      <c r="Q140">
+        <v>26.29854249</v>
+      </c>
+      <c r="R140">
+        <v>8.26333337</v>
+      </c>
+      <c r="S140">
+        <v>8.68358276</v>
+      </c>
+      <c r="T140">
+        <v>14.21616393</v>
+      </c>
+      <c r="U140">
+        <v>17.99344383</v>
+      </c>
+      <c r="V140">
+        <v>11.95357201</v>
+      </c>
+      <c r="W140">
+        <v>12.15381626</v>
+      </c>
+      <c r="X140">
+        <v>10.24755617</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>7.36503458</v>
+      </c>
+      <c r="AA140">
+        <v>14.97123753</v>
+      </c>
+      <c r="AB140">
+        <v>9.24353582</v>
+      </c>
+      <c r="AD140">
+        <v>49.82325379</v>
+      </c>
+      <c r="AE140">
+        <v>32.32487106</v>
+      </c>
+      <c r="AF140">
+        <v>12.03570985</v>
+      </c>
+      <c r="AG140">
+        <v>3.70873099</v>
+      </c>
+      <c r="AH140">
+        <v>15.57609549</v>
+      </c>
+      <c r="AI140">
+        <v>18.33635983</v>
+      </c>
+      <c r="AJ140">
+        <v>12.0839654</v>
+      </c>
+      <c r="AK140">
+        <v>41.07691133</v>
+      </c>
+      <c r="AL140">
+        <v>17.8429001</v>
+      </c>
+      <c r="AM140">
+        <v>8.573965400000001</v>
+      </c>
+      <c r="AN140">
+        <v>8.749599570000001</v>
+      </c>
+      <c r="AO140">
+        <v>30.36990321</v>
+      </c>
+      <c r="AP140">
+        <v>14.05490297</v>
+      </c>
+      <c r="AQ140">
+        <v>7.77396204</v>
+      </c>
+      <c r="AS140">
+        <v>22.01483012</v>
+      </c>
+      <c r="AT140">
+        <v>19.99209226</v>
+      </c>
+      <c r="AU140">
+        <v>21.4748459</v>
+      </c>
+      <c r="AV140">
+        <v>18.15143556</v>
+      </c>
+      <c r="AW140">
+        <v>19.37779344</v>
+      </c>
+      <c r="AX140">
+        <v>14.66878021</v>
+      </c>
+      <c r="AY140">
+        <v>6.197653</v>
+      </c>
+      <c r="BA140">
+        <v>15.38869597</v>
+      </c>
+      <c r="BB140">
+        <v>6.65820503</v>
+      </c>
+      <c r="BC140">
+        <v>30.66829274</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:57">
       <c r="A141" t="s">
         <v>195</v>
       </c>
+      <c r="B141">
+        <v>23.07197513</v>
+      </c>
+      <c r="C141">
+        <v>31.51753125</v>
+      </c>
+      <c r="D141">
+        <v>22.81315585</v>
+      </c>
+      <c r="F141">
+        <v>31.31552843</v>
+      </c>
+      <c r="G141">
+        <v>7.85835547</v>
+      </c>
+      <c r="H141">
+        <v>6.14485069</v>
+      </c>
+      <c r="I141">
+        <v>11.12484049</v>
+      </c>
+      <c r="J141">
+        <v>8.074904610000001</v>
+      </c>
+      <c r="K141">
+        <v>19.56387429</v>
+      </c>
+      <c r="L141">
+        <v>12.73009263</v>
+      </c>
+      <c r="M141">
+        <v>17.21042151</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>42.86734835</v>
+      </c>
+      <c r="Q141">
+        <v>40.13876664</v>
+      </c>
+      <c r="R141">
+        <v>8.64318411</v>
+      </c>
+      <c r="S141">
+        <v>17.03205038</v>
+      </c>
+      <c r="T141">
+        <v>12.53056235</v>
+      </c>
+      <c r="U141">
+        <v>17.84808536</v>
+      </c>
+      <c r="V141">
+        <v>8.489246659999999</v>
+      </c>
+      <c r="W141">
+        <v>11.9978301</v>
+      </c>
+      <c r="X141">
+        <v>10.69753528</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>6.34390689</v>
+      </c>
+      <c r="AA141">
+        <v>17.43779789</v>
+      </c>
+      <c r="AB141">
+        <v>15.81642045</v>
+      </c>
+      <c r="AD141">
+        <v>40.99815773</v>
+      </c>
+      <c r="AE141">
+        <v>26.50919815</v>
+      </c>
+      <c r="AF141">
+        <v>13.93130408</v>
+      </c>
+      <c r="AG141">
+        <v>2.16727502</v>
+      </c>
+      <c r="AH141">
+        <v>12.2306104</v>
+      </c>
+      <c r="AI141">
+        <v>13.86215093</v>
+      </c>
+      <c r="AJ141">
+        <v>12.77141751</v>
+      </c>
+      <c r="AK141">
+        <v>47.6737252</v>
+      </c>
+      <c r="AL141">
+        <v>22.86265853</v>
+      </c>
+      <c r="AM141">
+        <v>8.865683539999999</v>
+      </c>
+      <c r="AN141">
+        <v>8.16612054</v>
+      </c>
+      <c r="AO141">
+        <v>31.20472873</v>
+      </c>
+      <c r="AP141">
+        <v>14.22864228</v>
+      </c>
+      <c r="AQ141">
+        <v>7.31798952</v>
+      </c>
+      <c r="AS141">
+        <v>17.66915876</v>
+      </c>
+      <c r="AT141">
+        <v>18.58322389</v>
+      </c>
+      <c r="AU141">
+        <v>15.25901598</v>
+      </c>
+      <c r="AV141">
+        <v>14.57208722</v>
+      </c>
+      <c r="AW141">
+        <v>19.76659741</v>
+      </c>
+      <c r="AX141">
+        <v>11.05211921</v>
+      </c>
+      <c r="AY141">
+        <v>5.5915531</v>
+      </c>
+      <c r="BA141">
+        <v>13.20561135</v>
+      </c>
+      <c r="BB141">
+        <v>5.07218123</v>
+      </c>
+      <c r="BC141">
+        <v>33.99274262</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:57">
       <c r="A142" t="s">
         <v>196</v>
       </c>
+      <c r="B142">
+        <v>17.35712836</v>
+      </c>
+      <c r="C142">
+        <v>25.90733783</v>
+      </c>
+      <c r="D142">
+        <v>16.91026042</v>
+      </c>
+      <c r="F142">
+        <v>32.99912113</v>
+      </c>
+      <c r="G142">
+        <v>8.501628849999999</v>
+      </c>
+      <c r="H142">
+        <v>6.48126063</v>
+      </c>
+      <c r="I142">
+        <v>7.69126479</v>
+      </c>
+      <c r="J142">
+        <v>2.6065077</v>
+      </c>
+      <c r="K142">
+        <v>15.91563657</v>
+      </c>
+      <c r="L142">
+        <v>15.01950778</v>
+      </c>
+      <c r="M142">
+        <v>18.31282645</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>46.03606968</v>
+      </c>
+      <c r="Q142">
+        <v>33.5671213</v>
+      </c>
+      <c r="R142">
+        <v>8.247448690000001</v>
+      </c>
+      <c r="S142">
+        <v>19.0361658</v>
+      </c>
+      <c r="T142">
+        <v>10.63527391</v>
+      </c>
+      <c r="U142">
+        <v>13.97616171</v>
+      </c>
+      <c r="V142">
+        <v>5.51550835</v>
+      </c>
+      <c r="W142">
+        <v>8.527361170000001</v>
+      </c>
+      <c r="X142">
+        <v>7.46498967</v>
+      </c>
+      <c r="Y142">
+        <v>11.73917124</v>
+      </c>
+      <c r="Z142">
+        <v>4.1600268</v>
+      </c>
+      <c r="AA142">
+        <v>15.38639743</v>
+      </c>
+      <c r="AB142">
+        <v>22.91948226</v>
+      </c>
+      <c r="AD142">
+        <v>39.37454104</v>
+      </c>
+      <c r="AE142">
+        <v>20.75070391</v>
+      </c>
+      <c r="AF142">
+        <v>10.7549154</v>
+      </c>
+      <c r="AG142">
+        <v>0.85456375</v>
+      </c>
+      <c r="AH142">
+        <v>9.074045549999999</v>
+      </c>
+      <c r="AI142">
+        <v>9.856447360000001</v>
+      </c>
+      <c r="AJ142">
+        <v>9.63845149</v>
+      </c>
+      <c r="AK142">
+        <v>38.79616001</v>
+      </c>
+      <c r="AL142">
+        <v>18.50886606</v>
+      </c>
+      <c r="AM142">
+        <v>8.48410778</v>
+      </c>
+      <c r="AN142">
+        <v>10.2199707</v>
+      </c>
+      <c r="AO142">
+        <v>37.39990613</v>
+      </c>
+      <c r="AP142">
+        <v>17.81906869</v>
+      </c>
+      <c r="AQ142">
+        <v>5.01964729</v>
+      </c>
+      <c r="AS142">
+        <v>13.51031079</v>
+      </c>
+      <c r="AT142">
+        <v>26.74159645</v>
+      </c>
+      <c r="AU142">
+        <v>9.82216519</v>
+      </c>
+      <c r="AV142">
+        <v>20.25559872</v>
+      </c>
+      <c r="AW142">
+        <v>21.4266656</v>
+      </c>
+      <c r="AX142">
+        <v>7.75808352</v>
+      </c>
+      <c r="AY142">
+        <v>5.27235046</v>
+      </c>
+      <c r="BA142">
+        <v>10.83813674</v>
+      </c>
+      <c r="BB142">
+        <v>3.62592391</v>
+      </c>
+      <c r="BC142">
+        <v>31.8996932</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:57">
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>12.44247602</v>
+      </c>
+      <c r="C143">
+        <v>27.53835207</v>
+      </c>
+      <c r="D143">
+        <v>24.70792822</v>
+      </c>
+      <c r="F143">
+        <v>36.74927442</v>
+      </c>
+      <c r="G143">
+        <v>7.87585451</v>
+      </c>
+      <c r="H143">
+        <v>11.80438755</v>
+      </c>
+      <c r="I143">
+        <v>8.5074387</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>12.32107749</v>
+      </c>
+      <c r="L143">
+        <v>17.30358404</v>
+      </c>
+      <c r="M143">
+        <v>18.57975647</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>48.60598331</v>
+      </c>
+      <c r="Q143">
+        <v>37.32640142</v>
+      </c>
+      <c r="R143">
+        <v>9.61809775</v>
+      </c>
+      <c r="S143">
+        <v>15.30158142</v>
+      </c>
+      <c r="T143">
+        <v>34.05139093</v>
+      </c>
+      <c r="U143">
+        <v>14.31646152</v>
+      </c>
+      <c r="V143">
+        <v>15.35497133</v>
+      </c>
+      <c r="W143">
+        <v>9.346437740000001</v>
+      </c>
+      <c r="X143">
+        <v>4.68614514</v>
+      </c>
+      <c r="Y143">
+        <v>10.33372303</v>
+      </c>
+      <c r="Z143">
+        <v>6.83991943</v>
+      </c>
+      <c r="AA143">
+        <v>16.19301166</v>
+      </c>
+      <c r="AB143">
+        <v>26.58231066</v>
+      </c>
+      <c r="AD143">
+        <v>30.42306606</v>
+      </c>
+      <c r="AE143">
+        <v>15.32387825</v>
+      </c>
+      <c r="AF143">
+        <v>12.65147811</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>22.67297304</v>
+      </c>
+      <c r="AI143">
+        <v>27.42967304</v>
+      </c>
+      <c r="AJ143">
+        <v>11.04227034</v>
+      </c>
+      <c r="AK143">
+        <v>30.15879603</v>
+      </c>
+      <c r="AL143">
+        <v>23.79927476</v>
+      </c>
+      <c r="AM143">
+        <v>7.52842621</v>
+      </c>
+      <c r="AN143">
+        <v>9.37713857</v>
+      </c>
+      <c r="AO143">
+        <v>38.32405913</v>
+      </c>
+      <c r="AP143">
+        <v>17.61368456</v>
+      </c>
+      <c r="AQ143">
+        <v>3.06749394</v>
+      </c>
+      <c r="AS143">
+        <v>9.69094392</v>
+      </c>
+      <c r="AT143">
+        <v>37.10950704</v>
+      </c>
+      <c r="AU143">
+        <v>5.28807802</v>
+      </c>
+      <c r="AV143">
+        <v>18.31907826</v>
+      </c>
+      <c r="AW143">
+        <v>22.45793246</v>
+      </c>
+      <c r="AX143">
+        <v>4.87906805</v>
+      </c>
+      <c r="AY143">
+        <v>6.70060031</v>
+      </c>
+      <c r="BA143">
+        <v>8.4187335</v>
+      </c>
+      <c r="BB143">
+        <v>8.377298809999999</v>
+      </c>
+      <c r="BC143">
+        <v>32.75413663</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
+      </c>
+      <c r="B144">
+        <v>8.30925045</v>
+      </c>
+      <c r="C144">
+        <v>27.58211666</v>
+      </c>
+      <c r="D144">
+        <v>35.30483846</v>
+      </c>
+      <c r="F144">
+        <v>38.67392941</v>
+      </c>
+      <c r="G144">
+        <v>8.651165799999999</v>
+      </c>
+      <c r="H144">
+        <v>17.55269651</v>
+      </c>
+      <c r="I144">
+        <v>5.69052992</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>8.95483595</v>
+      </c>
+      <c r="L144">
+        <v>17.19627665</v>
+      </c>
+      <c r="M144">
+        <v>21.32011093</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>38.83660193</v>
+      </c>
+      <c r="Q144">
+        <v>38.43167252</v>
+      </c>
+      <c r="R144">
+        <v>10.31799186</v>
+      </c>
+      <c r="S144">
+        <v>20.01096584</v>
+      </c>
+      <c r="T144">
+        <v>39.83672276</v>
+      </c>
+      <c r="U144">
+        <v>17.40496595</v>
+      </c>
+      <c r="V144">
+        <v>26.92229405</v>
+      </c>
+      <c r="W144">
+        <v>9.55353895</v>
+      </c>
+      <c r="X144">
+        <v>6.13074275</v>
+      </c>
+      <c r="Y144">
+        <v>8.767332529999999</v>
+      </c>
+      <c r="Z144">
+        <v>6.1041072</v>
+      </c>
+      <c r="AA144">
+        <v>13.97322583</v>
+      </c>
+      <c r="AB144">
+        <v>28.18982487</v>
+      </c>
+      <c r="AD144">
+        <v>34.07656066</v>
+      </c>
+      <c r="AE144">
+        <v>10.44772007</v>
+      </c>
+      <c r="AF144">
+        <v>13.62443181</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>46.47372249</v>
+      </c>
+      <c r="AI144">
+        <v>21.97812319</v>
+      </c>
+      <c r="AJ144">
+        <v>9.287312890000001</v>
+      </c>
+      <c r="AK144">
+        <v>22.11509164</v>
+      </c>
+      <c r="AL144">
+        <v>27.39474184</v>
+      </c>
+      <c r="AM144">
+        <v>6.46369913</v>
+      </c>
+      <c r="AN144">
+        <v>9.37971368</v>
+      </c>
+      <c r="AO144">
+        <v>41.6575904</v>
+      </c>
+      <c r="AP144">
+        <v>16.75869192</v>
+      </c>
+      <c r="AQ144">
+        <v>3.45043751</v>
+      </c>
+      <c r="AS144">
+        <v>6.32914235</v>
+      </c>
+      <c r="AT144">
+        <v>37.0947152</v>
+      </c>
+      <c r="AU144">
+        <v>1.70276781</v>
+      </c>
+      <c r="AV144">
+        <v>16.05508527</v>
+      </c>
+      <c r="AW144">
+        <v>25.6062826</v>
+      </c>
+      <c r="AX144">
+        <v>10.69838389</v>
+      </c>
+      <c r="AY144">
+        <v>6.18870566</v>
+      </c>
+      <c r="BA144">
+        <v>6.08181765</v>
+      </c>
+      <c r="BB144">
+        <v>14.86868986</v>
+      </c>
+      <c r="BC144">
+        <v>34.12045205</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
